--- a/result/reg/2023_solo_20s_ratio.xlsx
+++ b/result/reg/2023_solo_20s_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6820000000000001</v>
+        <v>-0.581</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.629</v>
+        <v>-0.636</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.674</v>
+        <v>-0.465</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,11 +504,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>한식음식점</t>
+          <t>치킨전문점</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.385</v>
+        <v>-0.028</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -516,11 +516,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.205</v>
+        <v>-0.191</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -529,50 +529,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>중식음식점</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.155</v>
+        <v>-0.059</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.179</v>
+        <v>-0.114</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.145</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>슈퍼마켓</t>
+          <t>지가</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.065</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -589,71 +583,71 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.089</v>
+        <v>0.082</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.081</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.089</v>
+        <v>0.304</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.081</v>
+        <v>0.151</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.11</v>
+        <v>0.311</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -661,7 +655,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.114</v>
+        <v>0.511</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -672,19 +666,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>일식음식점</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.268</v>
+        <v>0.439</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.323</v>
+        <v>0.433</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -692,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.314</v>
+        <v>0.451</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -703,58 +697,46 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.41</v>
+        <v>0.149</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.404</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.499</v>
+        <v>0.301</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.382</v>
+        <v>0.322</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -765,30 +747,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>한식음식점</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.23</v>
+        <v>-0.571</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-0.265</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.116</v>
+        <v>0.126</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -797,17 +785,23 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.276</v>
+        <v>-0.27</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -816,17 +810,23 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-0.292</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>중식음식점</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.026</v>
+        <v>0.104</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -835,17 +835,23 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.081</v>
+        <v>0.285</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -860,11 +866,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>패스트푸드점</t>
+          <t>일식음식점</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.098</v>
+        <v>0.241</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -879,11 +885,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.031</v>
+        <v>0.045</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -898,11 +904,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>패스트푸드점</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.123</v>
+        <v>-0.038</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -917,11 +923,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>대형마트</t>
+          <t>호프-간이주점</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.067</v>
+        <v>0.058</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -936,11 +942,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>대형마트</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.035</v>
+        <v>0.056</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -955,11 +961,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07199999999999999</v>
+        <v>-0.117</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -974,11 +980,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>지가</t>
+          <t>슈퍼마켓</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.022</v>
+        <v>0.001</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -993,11 +999,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.196</v>
+        <v>-0.189</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1009,25 +1015,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>종사자수</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.194</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
